--- a/lab_01/table.xlsx
+++ b/lab_01/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex1\Projects\hse_SoC\lab_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1152DBE9-A7D3-4B5F-8271-20F38FEE3536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8FD585-D358-447C-9CC9-363F67001CAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EB93A224-D140-4748-AFE7-8DBA1D00BEA6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB93A224-D140-4748-AFE7-8DBA1D00BEA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,15 +401,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6429B7-3A81-4412-80C8-783B255EF96C}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E13"/>
+      <selection activeCell="E11" sqref="E11:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,7 +426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -443,10 +443,22 @@
         <f>OR(NOT(OR(NOT(OR(A2,B2)),AND(A2,C2))),AND(NOT(A2),NOT(B2),NOT(C2),NOT(D2)))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -455,297 +467,511 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="b">
-        <f t="shared" ref="E3:E17" si="0">OR(NOT(OR(NOT(OR(A3,B3)),AND(A3,C3))),AND(NOT(A3),NOT(B3),NOT(C3),NOT(D3)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <f>OR(NOT(OR(NOT(OR(A3,B3)),AND(A3,C3))),AND(NOT(A3),NOT(B3),NOT(C3),NOT(D3)))</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
+        <f>A2</f>
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <f>D2</f>
         <v>0</v>
       </c>
       <c r="E4" t="b">
+        <f>OR(NOT(OR(NOT(OR(A4,B4)),AND(A4,C4))),AND(NOT(A4),NOT(B4),NOT(C4),NOT(D4)))</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <f>J2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <f>A3</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <f>OR(NOT(OR(NOT(OR(A5,B5)),AND(A5,C5))),AND(NOT(A5),NOT(B5),NOT(C5),NOT(D5)))</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <f>J3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <f>A4</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <f>OR(NOT(OR(NOT(OR(A6,B6)),AND(A6,C6))),AND(NOT(A6),NOT(B6),NOT(C6),NOT(D6)))</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <f>I2</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <f>J4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <f>A5</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <f>B3</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <f>OR(NOT(OR(NOT(OR(A7,B7)),AND(A7,C7))),AND(NOT(A7),NOT(B7),NOT(C7),NOT(D7)))</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <f>I3</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <f>J5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <f>A6</f>
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <f>OR(NOT(OR(NOT(OR(A8,B8)),AND(A8,C8))),AND(NOT(A8),NOT(B8),NOT(C8),NOT(D8)))</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <f>I4</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <f>J6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <f>A7</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <f>B5</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <f>OR(NOT(OR(NOT(OR(A9,B9)),AND(A9,C9))),AND(NOT(A9),NOT(B9),NOT(C9),NOT(D9)))</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <f>I5</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <f>J7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <f>A8</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <f>B6</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <f>C2</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <f>OR(NOT(OR(NOT(OR(A10,B10)),AND(A10,C10))),AND(NOT(A10),NOT(B10),NOT(C10),NOT(D10)))</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <f>H2</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>I6</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <f>J8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <f>A9</f>
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <f>B7</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" ref="C11:C17" si="0">C3</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <f>OR(NOT(OR(NOT(OR(A11,B11)),AND(A11,C11))),AND(NOT(A11),NOT(B11),NOT(C11),NOT(D11)))</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" ref="H11:H17" si="1">H3</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>I7</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <f>J9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <f>A10</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <f>B8</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:D17" si="1">D3</f>
-        <v>1</v>
-      </c>
-      <c r="E5" t="b">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <f>OR(NOT(OR(NOT(OR(A12,B12)),AND(A12,C12))),AND(NOT(A12),NOT(B12),NOT(C12),NOT(D12)))</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>I8</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <f>J10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <f>A11</f>
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <f>B9</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <f>C2</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <f>OR(NOT(OR(NOT(OR(A13,B13)),AND(A13,C13))),AND(NOT(A13),NOT(B13),NOT(C13),NOT(D13)))</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E6" t="b">
+      <c r="I13" s="1">
+        <f>I9</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <f>J11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <f>A12</f>
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <f>B10</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" ref="C7:C17" si="2">C3</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <f>OR(NOT(OR(NOT(OR(A14,B14)),AND(A14,C14))),AND(NOT(A14),NOT(B14),NOT(C14),NOT(D14)))</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E7" t="b">
+      <c r="I14" s="1">
+        <f>I10</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <f>J12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <f>A13</f>
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <f>OR(NOT(OR(NOT(OR(A15,B15)),AND(A15,C15))),AND(NOT(A15),NOT(B15),NOT(C15),NOT(D15)))</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <f>I11</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <f>J13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <f>A14</f>
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B12</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <f>OR(NOT(OR(NOT(OR(A16,B16)),AND(A16,C16))),AND(NOT(A16),NOT(B16),NOT(C16),NOT(D16)))</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E9" t="b">
+      <c r="I16" s="1">
+        <f>I12</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <f>J14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <f>A15</f>
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <f>B13</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1">
-        <f>B2</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <f>OR(NOT(OR(NOT(OR(A17,B17)),AND(A17,C17))),AND(NOT(A17),NOT(B17),NOT(C17),NOT(D17)))</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" ref="B11:B17" si="3">B3</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E12" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E13" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E14" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E15" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E16" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <f>I13</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <f>J15</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
